--- a/biology/Zoologie/Cyanopica/Cyanopica.xlsx
+++ b/biology/Zoologie/Cyanopica/Cyanopica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanopica est un genre de passereaux de la famille des Corvidae. Ce genre est celui qui regroupe les pies-bleues, dont il existe deux populations séparées par une grande distance géographique. L'une vit en Europe de l'Ouest, plus particulièrement dans le sud-ouest de l'Espagne et du Portugal ; l'autre occupe une grande partie de l'Asie orientale : Chine, Corée, Japon et nord de la Mongolie. Les études génétiques ont montré qu'il s'agissait de deux espèces distinctes à la suite de quoi l'espèce européenne devrait s'appeler Cyanopica cooki mais ce changement n'est pas encore entré dans les habitudes européennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la classification du Congrès ornithologique international (version 5.2, 2015) :
 Cyanopica cyanus – Pie-bleue à calotte noire
